--- a/test_data/sample_data.xlsx
+++ b/test_data/sample_data.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Material\Git\Fuck-Charts\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DB598A-43CC-4BE5-90CD-6325163AE243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C157E3-8485-4F7E-8010-DDCB13CECEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="2390" windowWidth="21600" windowHeight="13210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -424,10 +435,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -641,7 +655,7 @@
         <v>26500</v>
       </c>
       <c r="C13">
-        <v>7300</v>
+        <v>-7300</v>
       </c>
       <c r="D13">
         <v>240</v>
